--- a/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9570"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="907">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4061,6 +4061,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4582,7 +4586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4736,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>

--- a/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="909">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4036,35 +4036,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://10.146.83.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_2$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MultiSearch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SearchStart$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SearchEnd$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_2$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchStart$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchEnd$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4586,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4595,8 +4603,9 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4742,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
@@ -4839,10 +4848,10 @@
         <v>423</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>903</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -5130,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5579,7 +5588,7 @@
         <v>862</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -5646,7 +5655,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>620</v>
@@ -5656,13 +5665,13 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -6023,7 +6032,7 @@
         <v>221</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>889</v>

--- a/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="911">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4073,6 +4073,14 @@
   </si>
   <si>
     <t>$SNMP_SearchEnd$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4595,7 +4603,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4832,9 +4840,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>909</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>910</v>
+      </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -4862,11 +4872,9 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>821</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -4891,8 +4899,12 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>821</v>
+      </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
@@ -4917,10 +4929,8 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
@@ -4944,7 +4954,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="3">
@@ -4974,7 +4984,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="3">
@@ -5004,7 +5014,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="3">
@@ -5034,7 +5044,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="3">
@@ -5064,7 +5074,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="3">
@@ -5091,10 +5101,10 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="14.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>829</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -5121,7 +5131,7 @@
     <row r="18" spans="1:14" ht="14.25">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -5149,11 +5159,9 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>831</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="14" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -5180,9 +5188,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>831</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>821</v>
+      </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
@@ -5208,7 +5218,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="3">
@@ -5235,6 +5245,10 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7788" uniqueCount="910">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4073,6 +4073,10 @@
   </si>
   <si>
     <t>$SNMP_SearchEnd$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4100,6 +4104,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4112,6 +4117,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4142,6 +4148,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4594,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4606,6 +4613,7 @@
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4775,7 +4783,7 @@
         <v>818</v>
       </c>
       <c r="B6" s="10">
-        <v>41045</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4832,9 +4840,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>909</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -4862,11 +4870,9 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>821</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -4891,8 +4897,12 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>821</v>
+      </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
@@ -4917,10 +4927,8 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
@@ -4944,7 +4952,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="3">
@@ -4974,7 +4982,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="3">
@@ -5004,7 +5012,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="3">
@@ -5034,7 +5042,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="3">
@@ -5064,7 +5072,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="3">
@@ -5091,10 +5099,10 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="14.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>829</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -5121,7 +5129,7 @@
     <row r="18" spans="1:14" ht="14.25">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -5149,11 +5157,9 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>831</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="14" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -5180,9 +5186,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>831</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>821</v>
+      </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
@@ -5208,7 +5216,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="3">
@@ -5235,6 +5243,10 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST962_AddDevice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
+    <workbookView xWindow="90" yWindow="3645" windowWidth="21615" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7788" uniqueCount="909">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3791,296 +3791,288 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FormLogin_to_LiebertR_Nform</t>
+    <t>NformLogin</t>
+  </si>
+  <si>
+    <t>"localhost"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NformLogin</t>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormAdd_Device</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormDeviceProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeout_override_global_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1500"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"public"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormAdd_Device_Results</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SingleAuto"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;This Scenario Covered in Edit Device</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormAdd_Device</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormAdd_Device_Results</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10.130.92.362"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormWarning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GXT UPS3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exists</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description for GXT222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description for GXT</t>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormConfiguration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"AllDel"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.146.83.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_2$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchStart$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchEnd$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"Administrator"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"admin"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FormMain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Configure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormAdd_Device</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormDeviceProperties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeout_override_global_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1500"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"public"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormAdd_Device_Results</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SingleAuto"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;This Scenario Covered in Edit Device</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormAdd_Device</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormAdd_Device_Results</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10.130.92.362"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormWarning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetTextValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GXT UPS3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exists</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyProperty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description for GXT222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description for GXT</t>
-  </si>
-  <si>
-    <t>Finish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormConfiguration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"AllDel"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.146.83.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetTextValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyProperty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_2$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4088,7 +4080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4150,6 +4142,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4694,24 +4692,24 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>836</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4728,19 +4726,19 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>842</v>
+      <c r="D4" s="7" t="s">
+        <v>822</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>908</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4758,8 +4756,8 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>902</v>
+      <c r="D5" s="7" t="s">
+        <v>822</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
@@ -4767,10 +4765,10 @@
       <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4789,10 +4787,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>212</v>
@@ -4819,10 +4817,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>195</v>
@@ -4840,28 +4838,26 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>910</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>423</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4879,10 +4875,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>650</v>
@@ -4909,10 +4905,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>195</v>
@@ -4935,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>799</v>
@@ -4961,10 +4957,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>222</v>
@@ -4973,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4991,10 +4987,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>221</v>
@@ -5003,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5021,10 +5017,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>560</v>
@@ -5033,7 +5029,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5051,10 +5047,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>651</v>
@@ -5063,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5081,10 +5077,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>652</v>
@@ -5109,10 +5105,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>567</v>
@@ -5137,10 +5133,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>568</v>
@@ -5149,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5167,10 +5163,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>572</v>
@@ -5197,10 +5193,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>570</v>
@@ -5225,10 +5221,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>571</v>
@@ -5253,13 +5249,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -5277,10 +5273,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>402</v>
@@ -5289,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -5303,10 +5299,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>521</v>
@@ -5315,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5329,10 +5325,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>564</v>
@@ -5353,10 +5349,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>585</v>
@@ -5377,10 +5373,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>586</v>
@@ -5389,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5403,10 +5399,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>587</v>
@@ -5427,10 +5423,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>588</v>
@@ -5439,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -5453,10 +5449,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>17</v>
@@ -5477,10 +5473,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>646</v>
@@ -5501,7 +5497,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>799</v>
@@ -5523,10 +5519,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>17</v>
@@ -5547,13 +5543,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>2</v>
@@ -5571,7 +5567,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5592,17 +5588,17 @@
         <v>836</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -5615,7 +5611,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5633,7 +5629,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5651,7 +5647,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5669,7 +5665,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>620</v>
@@ -5679,13 +5675,13 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -5697,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5715,7 +5711,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>19</v>
@@ -5739,7 +5735,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>19</v>
@@ -5766,10 +5762,10 @@
         <v>822</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>2</v>
@@ -5790,10 +5786,10 @@
         <v>822</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>2</v>
@@ -5814,7 +5810,7 @@
         <v>822</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>423</v>
@@ -5823,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="3"/>
@@ -5840,7 +5836,7 @@
         <v>822</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>650</v>
@@ -5864,10 +5860,10 @@
         <v>822</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>2</v>
@@ -5888,13 +5884,13 @@
         <v>822</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>196</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -5912,16 +5908,16 @@
         <v>822</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>222</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="3"/>
@@ -5938,16 +5934,16 @@
         <v>822</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="3"/>
@@ -5964,7 +5960,7 @@
         <v>822</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>560</v>
@@ -5973,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="3"/>
@@ -5990,7 +5986,7 @@
         <v>822</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>651</v>
@@ -5999,7 +5995,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="3"/>
@@ -6013,16 +6009,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -6037,25 +6033,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -6067,25 +6063,25 @@
         <v>55</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G56" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>888</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>893</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -6097,13 +6093,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>2</v>
@@ -6121,10 +6117,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F58" s="8">
         <v>3</v>
@@ -6143,13 +6139,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>2</v>
@@ -6167,10 +6163,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F60" s="8">
         <v>3</v>
@@ -6189,13 +6185,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>2</v>
@@ -6213,13 +6209,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>2</v>
@@ -6237,13 +6233,13 @@
         <v>62</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>2</v>
@@ -6261,10 +6257,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F64" s="8">
         <v>3</v>
@@ -6283,7 +6279,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>620</v>
@@ -6293,7 +6289,7 @@
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
